--- a/WIP/Documents/Report 5/DDL_Quality Report_1.0_EN.xlsx
+++ b/WIP/Documents/Report 5/DDL_Quality Report_1.0_EN.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Quality Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>#</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>Review</t>
-  </si>
-  <si>
-    <t>Component Test</t>
   </si>
   <si>
     <t>IT</t>
@@ -91,9 +88,6 @@
     <t>10</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>Code</t>
   </si>
   <si>
@@ -113,6 +107,18 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Acceptance Test</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -668,7 +674,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -679,7 +685,7 @@
   <dimension ref="C2:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +698,7 @@
   <sheetData>
     <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="3:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -700,7 +706,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="25"/>
     </row>
@@ -712,13 +718,13 @@
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
@@ -726,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
@@ -739,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="17">
         <v>18</v>
@@ -755,7 +761,7 @@
         <v>17</v>
       </c>
       <c r="G7" s="17">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
@@ -768,48 +774,50 @@
         <v>18</v>
       </c>
       <c r="G8" s="17">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9" s="9"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="17">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10" s="9"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="17"/>
+        <v>19</v>
+      </c>
+      <c r="G10" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11" s="9">
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="17">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
@@ -817,16 +825,16 @@
         <v>3</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="17">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
@@ -834,16 +842,16 @@
         <v>4</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G13" s="17">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
@@ -851,13 +859,13 @@
         <v>5</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G14" s="18">
         <v>3</v>
@@ -868,13 +876,13 @@
         <v>6</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" s="18">
         <v>6</v>
@@ -885,13 +893,13 @@
         <v>7</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G16" s="18">
         <v>4</v>
@@ -902,7 +910,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>3</v>
@@ -911,19 +919,19 @@
         <v>15</v>
       </c>
       <c r="G17" s="19">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="3:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22"/>
       <c r="G18" s="23">
         <f>G6+G7+G8+G9+G11+G12+G13+G14+G15+G16+G17</f>
-        <v>121</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
@@ -931,12 +939,12 @@
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -946,7 +954,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F11:F16" numberStoredAsText="1"/>
+    <ignoredError sqref="F11 F13 F15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/WIP/Documents/Report 5/DDL_Quality Report_1.0_EN.xlsx
+++ b/WIP/Documents/Report 5/DDL_Quality Report_1.0_EN.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>#</t>
   </si>
@@ -31,12 +31,6 @@
   </si>
   <si>
     <t>Review</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>System test</t>
   </si>
   <si>
     <t>Requirements</t>
@@ -112,13 +106,13 @@
     <t>Acceptance Test</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>42-48</t>
+  </si>
+  <si>
+    <t>Integration Test</t>
+  </si>
+  <si>
+    <t>System Test</t>
   </si>
 </sst>
 </file>
@@ -353,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -390,9 +384,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -401,6 +392,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,7 +674,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -685,7 +685,7 @@
   <dimension ref="C2:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,17 +698,17 @@
   <sheetData>
     <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="3:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="25"/>
+      <c r="F3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
@@ -718,13 +718,13 @@
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
@@ -745,62 +745,60 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="17">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" s="9"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G7" s="17">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8" s="9"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" s="17">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9" s="9"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G9" s="17">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10" s="9"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G10" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
@@ -808,16 +806,16 @@
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G11" s="17">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
@@ -825,13 +823,13 @@
         <v>3</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>30</v>
+      <c r="F12" s="25">
+        <v>14</v>
       </c>
       <c r="G12" s="17">
         <v>19</v>
@@ -842,13 +840,13 @@
         <v>4</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G13" s="17">
         <v>44</v>
@@ -859,13 +857,13 @@
         <v>5</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>31</v>
+      <c r="F14" s="26">
+        <v>7</v>
       </c>
       <c r="G14" s="18">
         <v>3</v>
@@ -876,13 +874,13 @@
         <v>6</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G15" s="18">
         <v>6</v>
@@ -893,13 +891,13 @@
         <v>7</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>32</v>
+      <c r="F16" s="26">
+        <v>6</v>
       </c>
       <c r="G16" s="18">
         <v>4</v>
@@ -910,7 +908,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>3</v>
@@ -919,19 +917,21 @@
         <v>15</v>
       </c>
       <c r="G17" s="19">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="3:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23">
+      <c r="F18" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="22">
         <f>G6+G7+G8+G9+G11+G12+G13+G14+G15+G16+G17</f>
-        <v>157</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
@@ -939,12 +939,12 @@
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
